--- a/killers_sample.xlsx
+++ b/killers_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx/Documents/uw_madison/Criminal Minds Project/criminal-mind-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB5FD29-750F-A844-A249-313EFD871F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5407344D-6B70-8A49-875E-F259196CBEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{7CCE2929-B09D-BF46-B72D-DA588046F0D7}"/>
+    <workbookView xWindow="0" yWindow="2000" windowWidth="33600" windowHeight="16940" xr2:uid="{7CCE2929-B09D-BF46-B72D-DA588046F0D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>Killer name</t>
   </si>
@@ -172,21 +172,6 @@
   </si>
   <si>
     <t>He was said to be obsessive-compulsive</t>
-  </si>
-  <si>
-    <t>The bodies were left near the scene in rural wooded areas._x000D_Although the bodies were hidden</t>
-  </si>
-  <si>
-    <t>The bodies were hidden near the scene in rural wooded areas._x000D_The method of dumping suggested that the killer was acting_x000D_out of panic rather than experience.</t>
-  </si>
-  <si>
-    <t>The bodies were found a few miles from where the abduction_x000D_took place</t>
-  </si>
-  <si>
-    <t>The bodies were moved</t>
-  </si>
-  <si>
-    <t>The bodies were cut with knife wounds</t>
   </si>
   <si>
     <t>Kimes_Sante</t>
@@ -264,9 +249,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,13 +567,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0689C1-9452-8B47-9856-78650BBBC0A5}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
@@ -605,7 +594,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -727,7 +716,7 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>1943</v>
       </c>
       <c r="F2">
@@ -849,7 +838,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>1958</v>
       </c>
       <c r="F3">
@@ -965,10 +954,13 @@
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
@@ -1090,7 +1082,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>1963</v>
       </c>
       <c r="F5">
@@ -1177,23 +1169,23 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AH5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>50</v>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
-      <c r="AK5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>53</v>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1201,7 +1193,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1212,7 +1204,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>1934</v>
       </c>
       <c r="F6">
@@ -1323,7 +1315,7 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1445,7 +1437,7 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1567,7 +1559,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1578,7 +1570,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>1930</v>
       </c>
       <c r="F9">
@@ -1689,7 +1681,7 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1700,7 +1692,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>1961</v>
       </c>
       <c r="F10">
@@ -1811,7 +1803,7 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1822,7 +1814,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>1969</v>
       </c>
       <c r="F11">
@@ -1865,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1933,7 +1925,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1944,7 +1936,7 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>1928</v>
       </c>
       <c r="F12">
@@ -2055,7 +2047,7 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2066,7 +2058,7 @@
       <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>1933</v>
       </c>
       <c r="F13">
@@ -2177,7 +2169,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2231,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2299,7 +2291,7 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2310,7 +2302,7 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>1944</v>
       </c>
       <c r="F15">
@@ -2421,7 +2413,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2432,7 +2424,7 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>1930</v>
       </c>
       <c r="F16">
@@ -2475,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T16">
         <v>1</v>
